--- a/Project_python/out/matrix_classification_abstract_kw_intro.xlsx
+++ b/Project_python/out/matrix_classification_abstract_kw_intro.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.04844584332029718]</t>
+          <t>[0.09285706662657317]</t>
         </is>
       </c>
       <c r="F2" t="b">
@@ -517,7 +517,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.06057700360370806]</t>
+          <t>[0.06307694191213578]</t>
         </is>
       </c>
       <c r="F3" t="b">
@@ -548,7 +548,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.04225295160733866, 0.02005461586294102]</t>
+          <t>[0.04459604053585223, 0.020962241240064277]</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -579,7 +579,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.07880436055745622]</t>
+          <t>[0.0831915178045608]</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -610,7 +610,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.032653985525635774]</t>
+          <t>[0.05962608699543037]</t>
         </is>
       </c>
       <c r="F6" t="b">
@@ -641,7 +641,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0.02888225758399268]</t>
+          <t>[0.03190000625089698]</t>
         </is>
       </c>
       <c r="F7" t="b">
@@ -672,7 +672,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.07640456007843732]</t>
+          <t>[0.07802997664057486]</t>
         </is>
       </c>
       <c r="F8" t="b">
@@ -693,7 +693,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.032966700370220245]</t>
+          <t>[0.13083737614183633]</t>
         </is>
       </c>
       <c r="F9" t="b">
@@ -724,7 +724,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[6]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.018206044078274943]</t>
+          <t>[0.05597832819780951]</t>
         </is>
       </c>
       <c r="F10" t="b">
@@ -765,7 +765,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.06588824963059951]</t>
+          <t>[0.06697584765863261]</t>
         </is>
       </c>
       <c r="F11" t="b">
@@ -786,24 +786,24 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>[2]</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[2]</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.04689698182825345]</t>
+          <t>[0.04806144914621377]</t>
         </is>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -827,7 +827,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.09906407968643977]</t>
+          <t>[0.09899558786666932]</t>
         </is>
       </c>
       <c r="F13" t="b">
@@ -858,7 +858,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.06789282812282067]</t>
+          <t>[0.07599436598822158]</t>
         </is>
       </c>
       <c r="F14" t="b">
@@ -889,7 +889,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[0.01616737514063725, 0.013688469220296033]</t>
+          <t>[0.018285002162059836, 0.014204776352347613]</t>
         </is>
       </c>
       <c r="F15" t="b">
@@ -920,7 +920,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.10768725999955431]</t>
+          <t>[0.11678997952167755]</t>
         </is>
       </c>
       <c r="F16" t="b">
@@ -951,7 +951,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.06336430437118333]</t>
+          <t>[0.0569137981902874]</t>
         </is>
       </c>
       <c r="F17" t="b">
@@ -982,7 +982,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.07989324888653306]</t>
+          <t>[0.03357006124458107]</t>
         </is>
       </c>
       <c r="F18" t="b">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[0.044062189176519294]</t>
+          <t>[0.04059072735909712]</t>
         </is>
       </c>
       <c r="F19" t="b">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.039176005286687375, 0.027614189423533584]</t>
+          <t>[0.08227025497538523, 0.027996265361816125]</t>
         </is>
       </c>
       <c r="F20" t="b">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.0321107013862441]</t>
+          <t>[0.035353119092676855]</t>
         </is>
       </c>
       <c r="F21" t="b">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[0.031901683580708634]</t>
+          <t>[0.03167704647587563]</t>
         </is>
       </c>
       <c r="F22" t="b">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.035631970965954066]</t>
+          <t>[0.027184841422534013]</t>
         </is>
       </c>
       <c r="F23" t="b">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[0.04784882880206381]</t>
+          <t>[0.0955339113625825]</t>
         </is>
       </c>
       <c r="F24" t="b">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[0.023087448442052027]</t>
+          <t>[0.025056944602978578]</t>
         </is>
       </c>
       <c r="F25" t="b">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[0.04783976753448551, 0.03152660372125582]</t>
+          <t>[0.050482037565859485, 0.03316480868568861]</t>
         </is>
       </c>
       <c r="F26" t="b">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[12, 8]</t>
+          <t>[12, 16]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[0.021897816506507656, 0.01649668674768324]</t>
+          <t>[0.022410550888222407, 0.017559498169920477]</t>
         </is>
       </c>
       <c r="F27" t="b">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[0.06631175651409962]</t>
+          <t>[0.07188671543092534]</t>
         </is>
       </c>
       <c r="F28" t="b">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[0.11206217378172859]</t>
+          <t>[0.12146502288627466]</t>
         </is>
       </c>
       <c r="F29" t="b">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[0.01866692886095124]</t>
+          <t>[0.020280870157346823]</t>
         </is>
       </c>
       <c r="F30" t="b">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[0.04650359267131108, 0.030487540462667502]</t>
+          <t>[0.04153567997917659, 0.03223196951798305]</t>
         </is>
       </c>
       <c r="F31" t="b">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[0.05193895761813634]</t>
+          <t>[0.046343062736100026]</t>
         </is>
       </c>
       <c r="F32" t="b">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[0.05615068875373761]</t>
+          <t>[0.059884297142968335]</t>
         </is>
       </c>
       <c r="F33" t="b">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[0.08411741019392387]</t>
+          <t>[0.09035870240646657]</t>
         </is>
       </c>
       <c r="F34" t="b">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[0.11783183323534689]</t>
+          <t>[0.12527976368999075]</t>
         </is>
       </c>
       <c r="F35" t="b">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[0.04732297950602474]</t>
+          <t>[0.04298899218998048]</t>
         </is>
       </c>
       <c r="F36" t="b">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[0.04869608887522551]</t>
+          <t>[0.0525598791344907]</t>
         </is>
       </c>
       <c r="F37" t="b">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[0.039153365649401785]</t>
+          <t>[0.042295961109373635]</t>
         </is>
       </c>
       <c r="F38" t="b">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[0.02445423597771273]</t>
+          <t>[0.03079269095393786]</t>
         </is>
       </c>
       <c r="F39" t="b">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[0.027202793836015742]</t>
+          <t>[0.02914369362211228]</t>
         </is>
       </c>
       <c r="F40" t="b">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[0.02750692253130446]</t>
+          <t>[0.05345079685597446]</t>
         </is>
       </c>
       <c r="F41" t="b">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[0.0795055525578606]</t>
+          <t>[0.08655051767241544]</t>
         </is>
       </c>
       <c r="F42" t="b">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[0.04783844346983984]</t>
+          <t>[0.052181151423928054]</t>
         </is>
       </c>
       <c r="F43" t="b">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[0.04804079151940192]</t>
+          <t>[0.054017893876461526]</t>
         </is>
       </c>
       <c r="F44" t="b">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[0.030980936131593285]</t>
+          <t>[0.033016136467257186]</t>
         </is>
       </c>
       <c r="F45" t="b">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[0.031610926089806035, 0.022540109755339786]</t>
+          <t>[0.03559298076934067, 0.02376600628344576]</t>
         </is>
       </c>
       <c r="F46" t="b">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[0.045669683970973464]</t>
+          <t>[0.04930892899844756]</t>
         </is>
       </c>
       <c r="F47" t="b">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[0.01994139811725678, 0.016781910819721732]</t>
+          <t>[0.019364323456258162, 0.017669421359880023]</t>
         </is>
       </c>
       <c r="F48" t="b">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[0.03342126580844017]</t>
+          <t>[0.03681788416740055]</t>
         </is>
       </c>
       <c r="F49" t="b">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0.07543710357145575]</t>
+          <t>[0.06493699688210669]</t>
         </is>
       </c>
       <c r="F50" t="b">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0.07467012849529035]</t>
+          <t>[0.06819781775146574]</t>
         </is>
       </c>
       <c r="F51" t="b">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[0.12164293067183166]</t>
+          <t>[0.10793011844117684]</t>
         </is>
       </c>
       <c r="F52" t="b">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[0.06024129157983221]</t>
+          <t>[0.05359265508572775]</t>
         </is>
       </c>
       <c r="F53" t="b">
@@ -2088,24 +2088,24 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>[4]</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>[4]</t>
-        </is>
-      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[0.10047870860162862]</t>
+          <t>[0.09017699033073964]</t>
         </is>
       </c>
       <c r="F54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[0.07600342011847373]</t>
+          <t>[0.06744192659500745]</t>
         </is>
       </c>
       <c r="F55" t="b">
@@ -2150,24 +2150,24 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>[4]</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>[4]</t>
-        </is>
-      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[0.023720267483010257]</t>
+          <t>[0.044936738637248154]</t>
         </is>
       </c>
       <c r="F56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[0.055327576057562965]</t>
+          <t>[0.09063011430281784]</t>
         </is>
       </c>
       <c r="F57" t="b">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[0.050335470653102066]</t>
+          <t>[0.044418770186404825]</t>
         </is>
       </c>
       <c r="F58" t="b">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[0.02855797573766897]</t>
+          <t>[0.03247025116648279]</t>
         </is>
       </c>
       <c r="F59" t="b">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[0.03199290686155919]</t>
+          <t>[0.028567941621545783]</t>
         </is>
       </c>
       <c r="F60" t="b">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[0.16025707541231393]</t>
+          <t>[0.17372096316902044]</t>
         </is>
       </c>
       <c r="F61" t="b">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[0.08309699173780678]</t>
+          <t>[0.08951481711998267]</t>
         </is>
       </c>
       <c r="F62" t="b">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[0.06937808646863572]</t>
+          <t>[0.07352517759168611]</t>
         </is>
       </c>
       <c r="F63" t="b">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[0.05374679737345903]</t>
+          <t>[0.057192954409958766]</t>
         </is>
       </c>
       <c r="F64" t="b">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[0.0976061753440593]</t>
+          <t>[0.1071873051202155]</t>
         </is>
       </c>
       <c r="F65" t="b">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[0.05509443876598306]</t>
+          <t>[0.10288834352393432]</t>
         </is>
       </c>
       <c r="F66" t="b">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[0.07651235244961671]</t>
+          <t>[0.07899325219301571]</t>
         </is>
       </c>
       <c r="F67" t="b">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[0.015770568572434914]</t>
+          <t>[0.01642605001168142]</t>
         </is>
       </c>
       <c r="F68" t="b">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[0.03445800692351729]</t>
+          <t>[0.04304544777361262]</t>
         </is>
       </c>
       <c r="F69" t="b">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[0.07483745181235106]</t>
+          <t>[0.07081108000413977]</t>
         </is>
       </c>
       <c r="F70" t="b">
@@ -2615,24 +2615,24 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>[6]</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>[6]</t>
-        </is>
-      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[0.06398573527210481]</t>
+          <t>[0.07377374932744721]</t>
         </is>
       </c>
       <c r="F71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[0.1338165802440511]</t>
+          <t>[0.12618670320485453]</t>
         </is>
       </c>
       <c r="F72" t="b">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[0.07565848945375714, 0.01928158171651589]</t>
+          <t>[0.07197701009805771, 0.03488556298903387]</t>
         </is>
       </c>
       <c r="F73" t="b">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[0.15893219650547893]</t>
+          <t>[0.16411536660769094]</t>
         </is>
       </c>
       <c r="F74" t="b">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[0.02062544030800073]</t>
+          <t>[0.02305073096600642]</t>
         </is>
       </c>
       <c r="F75" t="b">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[0.10410679691256523]</t>
+          <t>[0.04425348047779617]</t>
         </is>
       </c>
       <c r="F76" t="b">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[0.12117609357529036]</t>
+          <t>[0.08947019923249898]</t>
         </is>
       </c>
       <c r="F77" t="b">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[0.03479958466492823]</t>
+          <t>[0.027755340250391534]</t>
         </is>
       </c>
       <c r="F78" t="b">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[8, 2]</t>
+          <t>[8, 17]</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[0.0785459614059784, 0.018369592129879278]</t>
+          <t>[0.05679983328362766, 0.025762068451576088]</t>
         </is>
       </c>
       <c r="F79" t="b">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[0.05768289480536426]</t>
+          <t>[0.11090359862124871]</t>
         </is>
       </c>
       <c r="F80" t="b">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[0.029784276246328328]</t>
+          <t>[0.06191107494649853]</t>
         </is>
       </c>
       <c r="F81" t="b">
@@ -2956,21 +2956,21 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>[8, 17]</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>[8, 9]</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>[8, 9]</t>
-        </is>
-      </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[0.1356744468617507, 0.03938123445329747]</t>
+          <t>[0.09879087864138056, 0.049126498772518526]</t>
         </is>
       </c>
       <c r="F82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[0.05546334591837005]</t>
+          <t>[0.1094735200942631]</t>
         </is>
       </c>
       <c r="F83" t="b">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[0.04464772331957563]</t>
+          <t>[0.03436464605377642]</t>
         </is>
       </c>
       <c r="F84" t="b">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[0.02843922853292828]</t>
+          <t>[0.02950671198842836]</t>
         </is>
       </c>
       <c r="F85" t="b">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[7]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[0.09600608984214877]</t>
+          <t>[0.055899414685364704]</t>
         </is>
       </c>
       <c r="F86" t="b">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[0.12628494627202708, 0.024102715765906262]</t>
+          <t>[0.05184138759821456, 0.021879351227105166]</t>
         </is>
       </c>
       <c r="F87" t="b">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[0.2155749056248999, 0.031288864410423084]</t>
+          <t>[0.22291337057199806, 0.06063159485238347]</t>
         </is>
       </c>
       <c r="F88" t="b">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[0.1788113281710061, 0.05320706845385012]</t>
+          <t>[0.18531273431286982, 0.10677039547093198]</t>
         </is>
       </c>
       <c r="F89" t="b">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[0.06256432742429564, 0.03677419824725126]</t>
+          <t>[0.06884673073302752, 0.03852340591669721]</t>
         </is>
       </c>
       <c r="F90" t="b">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[0.0445275904471472]</t>
+          <t>[0.03494281792179857]</t>
         </is>
       </c>
       <c r="F91" t="b">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[0.03227204638520358]</t>
+          <t>[0.03259793741142212]</t>
         </is>
       </c>
       <c r="F92" t="b">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[0.04056492534131586]</t>
+          <t>[0.043085208561155074]</t>
         </is>
       </c>
       <c r="F93" t="b">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[0.04318848202792788]</t>
+          <t>[0.04749261464503371]</t>
         </is>
       </c>
       <c r="F94" t="b">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[0.02304292621674334]</t>
+          <t>[0.02471910599900893]</t>
         </is>
       </c>
       <c r="F95" t="b">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[0.16955033673391814]</t>
+          <t>[0.17555367787291348]</t>
         </is>
       </c>
       <c r="F96" t="b">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[0.041147255659784665]</t>
+          <t>[0.050216345560876716]</t>
         </is>
       </c>
       <c r="F97" t="b">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[0.08867814013666955]</t>
+          <t>[0.09153918311614301]</t>
         </is>
       </c>
       <c r="F98" t="b">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[0.297635632487814]</t>
+          <t>[0.3075854768131696]</t>
         </is>
       </c>
       <c r="F99" t="b">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[0.027883178946292782]</t>
+          <t>[0.030084563596266434]</t>
         </is>
       </c>
       <c r="F101" t="b">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[0.046615138545968215]</t>
+          <t>[0.043523979162225265]</t>
         </is>
       </c>
       <c r="F102" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[0.0706253709377707]</t>
+          <t>[0.07233742474083292]</t>
         </is>
       </c>
       <c r="F103" t="b">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[0.042955609361228116]</t>
+          <t>[0.04263184999082741]</t>
         </is>
       </c>
       <c r="F104" t="b">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[0.03210903195835751]</t>
+          <t>[0.03349958130455283]</t>
         </is>
       </c>
       <c r="F105" t="b">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[0.15231624980793618]</t>
+          <t>[0.1436107224597606]</t>
         </is>
       </c>
       <c r="F106" t="b">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[0.02518081689054145]</t>
+          <t>[0.0193430354920434]</t>
         </is>
       </c>
       <c r="F107" t="b">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[0.02745725869649007]</t>
+          <t>[0.04821530773231138]</t>
         </is>
       </c>
       <c r="F108" t="b">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[0.047506143021730396]</t>
+          <t>[0.041930663393535454]</t>
         </is>
       </c>
       <c r="F109" t="b">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[0.3021844427034669]</t>
+          <t>[0.2765303544804463]</t>
         </is>
       </c>
       <c r="F110" t="b">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[0.015457630077413178]</t>
+          <t>[0.030582574912143425]</t>
         </is>
       </c>
       <c r="F111" t="b">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[0.03912212580189172]</t>
+          <t>[0.1610507154772139]</t>
         </is>
       </c>
       <c r="F112" t="b">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[0.03023724831160536]</t>
+          <t>[0.02958412505124448]</t>
         </is>
       </c>
       <c r="F114" t="b">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[0.0720908355948298]</t>
+          <t>[0.07029028221380035]</t>
         </is>
       </c>
       <c r="F115" t="b">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[0.1583232018724387]</t>
+          <t>[0.1530732047064922]</t>
         </is>
       </c>
       <c r="F116" t="b">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[0.15865553283046321]</t>
+          <t>[0.15398334588142673]</t>
         </is>
       </c>
       <c r="F117" t="b">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[0.10723258889517148]</t>
+          <t>[0.10339416424855678]</t>
         </is>
       </c>
       <c r="F118" t="b">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[0.08253635388169271]</t>
+          <t>[0.08016888931068149]</t>
         </is>
       </c>
       <c r="F119" t="b">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[0.05262671642652212]</t>
+          <t>[0.051247359446404434]</t>
         </is>
       </c>
       <c r="F120" t="b">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[0.08256400458817512]</t>
+          <t>[0.08586998128621919]</t>
         </is>
       </c>
       <c r="F121" t="b">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[0.16212178191777438]</t>
+          <t>[0.15403477863347576]</t>
         </is>
       </c>
       <c r="F122" t="b">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[0.12225692608153578]</t>
+          <t>[0.11734934617043521]</t>
         </is>
       </c>
       <c r="F123" t="b">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[0.08477377847114786]</t>
+          <t>[0.08071210222583505]</t>
         </is>
       </c>
       <c r="F124" t="b">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[0.07349543399155509]</t>
+          <t>[0.06938792814932104]</t>
         </is>
       </c>
       <c r="F125" t="b">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[0.0809635069648022]</t>
+          <t>[0.07643009830567624]</t>
         </is>
       </c>
       <c r="F126" t="b">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[0.06912494606257476]</t>
+          <t>[0.067036955552126]</t>
         </is>
       </c>
       <c r="F127" t="b">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[0.16091737568746722]</t>
+          <t>[0.15137060534538302]</t>
         </is>
       </c>
       <c r="F128" t="b">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[0.20686366464113762]</t>
+          <t>[0.19470017026087846]</t>
         </is>
       </c>
       <c r="F129" t="b">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[0.08805418072823326]</t>
+          <t>[0.08287703668893877]</t>
         </is>
       </c>
       <c r="F130" t="b">
@@ -4475,24 +4475,24 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>[15]</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>[15]</t>
-        </is>
-      </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[0.05009373480686575]</t>
+          <t>[0.05798958623434586]</t>
         </is>
       </c>
       <c r="F131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[0.11630493766247829]</t>
+          <t>[0.10912304044451811]</t>
         </is>
       </c>
       <c r="F132" t="b">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[0.06536270771841059]</t>
+          <t>[0.062343666745561174]</t>
         </is>
       </c>
       <c r="F133" t="b">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[0.030564824767249414]</t>
+          <t>[0.03300952580812294]</t>
         </is>
       </c>
       <c r="F134" t="b">
@@ -4599,24 +4599,24 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>[16]</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>[16]</t>
-        </is>
-      </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[0.020577738249853803]</t>
+          <t>[0.03384964869955392]</t>
         </is>
       </c>
       <c r="F135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[0.03485732771392246]</t>
+          <t>[0.036563177432018985]</t>
         </is>
       </c>
       <c r="F136" t="b">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[0.050560312248247447]</t>
+          <t>[0.0687735220076214]</t>
         </is>
       </c>
       <c r="F137" t="b">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[0.03580940589065805]</t>
+          <t>[0.041516250450304194]</t>
         </is>
       </c>
       <c r="F138" t="b">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[0.03476753703876501]</t>
+          <t>[0.0698161739940102]</t>
         </is>
       </c>
       <c r="F139" t="b">
@@ -4754,24 +4754,24 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>[16]</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>[16]</t>
-        </is>
-      </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[0.02834330736053443]</t>
+          <t>[0.036384930466668054]</t>
         </is>
       </c>
       <c r="F140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[0.030510690608241926]</t>
+          <t>[0.02917828427784338]</t>
         </is>
       </c>
       <c r="F141" t="b">

--- a/Project_python/out/matrix_classification_abstract_kw_intro.xlsx
+++ b/Project_python/out/matrix_classification_abstract_kw_intro.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.09285706662657317]</t>
+          <t>[0.026683770215268]</t>
         </is>
       </c>
       <c r="F2" t="b">
@@ -517,7 +517,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.06307694191213578]</t>
+          <t>[0.06289781616289143]</t>
         </is>
       </c>
       <c r="F3" t="b">
@@ -548,7 +548,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.04459604053585223, 0.020962241240064277]</t>
+          <t>[0.04259864386917312, 0.019831614901689287]</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -579,7 +579,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.0831915178045608]</t>
+          <t>[0.08375712094478399]</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -600,7 +600,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.05962608699543037]</t>
+          <t>[0.02871481034640761]</t>
         </is>
       </c>
       <c r="F6" t="b">
@@ -631,7 +631,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0.03190000625089698]</t>
+          <t>[0.02738510390301338]</t>
         </is>
       </c>
       <c r="F7" t="b">
@@ -672,7 +672,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.07802997664057486]</t>
+          <t>[0.07772956748462807]</t>
         </is>
       </c>
       <c r="F8" t="b">
@@ -693,7 +693,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[13]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.13083737614183633]</t>
+          <t>[0.03258893112213991]</t>
         </is>
       </c>
       <c r="F9" t="b">
@@ -724,7 +724,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[13]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.05597832819780951]</t>
+          <t>[0.017982699182784456]</t>
         </is>
       </c>
       <c r="F10" t="b">
@@ -765,7 +765,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.06697584765863261]</t>
+          <t>[0.0658197144866198]</t>
         </is>
       </c>
       <c r="F11" t="b">
@@ -786,7 +786,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -796,14 +796,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.04806144914621377]</t>
+          <t>[0.04797567040578031]</t>
         </is>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -827,7 +827,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.09899558786666932]</t>
+          <t>[0.09867591736346773]</t>
         </is>
       </c>
       <c r="F13" t="b">
@@ -858,7 +858,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.07599436598822158]</t>
+          <t>[0.06826202988445715]</t>
         </is>
       </c>
       <c r="F14" t="b">
@@ -889,7 +889,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[0.018285002162059836, 0.014204776352347613]</t>
+          <t>[0.016124422806063698, 0.014947137509702542]</t>
         </is>
       </c>
       <c r="F15" t="b">
@@ -920,7 +920,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.11678997952167755]</t>
+          <t>[0.10866070943319703]</t>
         </is>
       </c>
       <c r="F16" t="b">
@@ -951,7 +951,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.0569137981902874]</t>
+          <t>[0.06461284892506401]</t>
         </is>
       </c>
       <c r="F17" t="b">
@@ -982,7 +982,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.03357006124458107]</t>
+          <t>[0.0829535997111909]</t>
         </is>
       </c>
       <c r="F18" t="b">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[0.04059072735909712]</t>
+          <t>[0.04359159085754307]</t>
         </is>
       </c>
       <c r="F19" t="b">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[17, 11]</t>
+          <t>[12, 11]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.08227025497538523, 0.027996265361816125]</t>
+          <t>[0.033181836547113285, 0.030394969953345435]</t>
         </is>
       </c>
       <c r="F20" t="b">
@@ -1065,24 +1065,24 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>[5]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>[3]</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>[3]</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.035353119092676855]</t>
+          <t>[0.037684584685552025]</t>
         </is>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[0.03167704647587563]</t>
+          <t>[0.03153562337561018]</t>
         </is>
       </c>
       <c r="F22" t="b">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[13]</t>
+          <t>[8]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.027184841422534013]</t>
+          <t>[0.02628184537780694]</t>
         </is>
       </c>
       <c r="F23" t="b">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[0.0955339113625825]</t>
+          <t>[0.03223529389601841]</t>
         </is>
       </c>
       <c r="F24" t="b">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[0.025056944602978578]</t>
+          <t>[0.014680311745189033]</t>
         </is>
       </c>
       <c r="F25" t="b">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[0.050482037565859485, 0.03316480868568861]</t>
+          <t>[0.05201430570694997, 0.03178372332289366]</t>
         </is>
       </c>
       <c r="F26" t="b">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[12, 16]</t>
+          <t>[12, 11]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1261,14 +1261,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[0.022410550888222407, 0.017559498169920477]</t>
+          <t>[0.021316340220760868, 0.014969058036357598]</t>
         </is>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[0.07188671543092534]</t>
+          <t>[0.06629387129375937]</t>
         </is>
       </c>
       <c r="F28" t="b">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[0.12146502288627466]</t>
+          <t>[0.11284568672007819]</t>
         </is>
       </c>
       <c r="F29" t="b">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[0.020280870157346823]</t>
+          <t>[0.01306068718392427]</t>
         </is>
       </c>
       <c r="F30" t="b">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[0.04153567997917659, 0.03223196951798305]</t>
+          <t>[0.04759749423879184, 0.03079571309060556]</t>
         </is>
       </c>
       <c r="F31" t="b">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[0.046343062736100026]</t>
+          <t>[0.05323596169442851]</t>
         </is>
       </c>
       <c r="F32" t="b">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[0.059884297142968335]</t>
+          <t>[0.056394215217371015]</t>
         </is>
       </c>
       <c r="F33" t="b">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[0.09035870240646657]</t>
+          <t>[0.08458793790340557]</t>
         </is>
       </c>
       <c r="F34" t="b">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[0.12527976368999075]</t>
+          <t>[0.11888984066307455]</t>
         </is>
       </c>
       <c r="F35" t="b">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[0.04298899218998048]</t>
+          <t>[0.04825503841724295]</t>
         </is>
       </c>
       <c r="F36" t="b">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[0.0525598791344907]</t>
+          <t>[0.05387905906834523]</t>
         </is>
       </c>
       <c r="F37" t="b">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[0.042295961109373635]</t>
+          <t>[0.039261049922111706]</t>
         </is>
       </c>
       <c r="F38" t="b">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[13]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[0.03079269095393786]</t>
+          <t>[0.022833330864716072]</t>
         </is>
       </c>
       <c r="F39" t="b">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[0.02914369362211228]</t>
+          <t>[0.027257606925713888]</t>
         </is>
       </c>
       <c r="F40" t="b">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[0.05345079685597446]</t>
+          <t>[0.026854896711403564]</t>
         </is>
       </c>
       <c r="F41" t="b">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[0.08655051767241544]</t>
+          <t>[0.08009233134301784]</t>
         </is>
       </c>
       <c r="F42" t="b">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[0.052181151423928054]</t>
+          <t>[0.04724363502629633]</t>
         </is>
       </c>
       <c r="F43" t="b">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[0.054017893876461526]</t>
+          <t>[0.04988759788096651]</t>
         </is>
       </c>
       <c r="F44" t="b">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[0.033016136467257186]</t>
+          <t>[0.034462651835560854]</t>
         </is>
       </c>
       <c r="F45" t="b">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[16, 5]</t>
+          <t>[5, 16]</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[0.03559298076934067, 0.02376600628344576]</t>
+          <t>[0.02958141860300425, 0.020574776479520936]</t>
         </is>
       </c>
       <c r="F46" t="b">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[0.04930892899844756]</t>
+          <t>[0.04475725754998949]</t>
         </is>
       </c>
       <c r="F47" t="b">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[0.019364323456258162, 0.017669421359880023]</t>
+          <t>[0.01981247053107813, 0.017194361665490213]</t>
         </is>
       </c>
       <c r="F48" t="b">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1943,14 +1943,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[0.03681788416740055]</t>
+          <t>[0.022309713062327576]</t>
         </is>
       </c>
       <c r="F49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0.06493699688210669]</t>
+          <t>[0.07547302657453916]</t>
         </is>
       </c>
       <c r="F50" t="b">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0.06819781775146574]</t>
+          <t>[0.07545306340977274]</t>
         </is>
       </c>
       <c r="F51" t="b">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[0.10793011844117684]</t>
+          <t>[0.12642546558905243]</t>
         </is>
       </c>
       <c r="F52" t="b">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[0.05359265508572775]</t>
+          <t>[0.06121743072682457]</t>
         </is>
       </c>
       <c r="F53" t="b">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2098,14 +2098,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[0.09017699033073964]</t>
+          <t>[0.10752813852242687]</t>
         </is>
       </c>
       <c r="F54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[0.06744192659500745]</t>
+          <t>[0.07882462139405609]</t>
         </is>
       </c>
       <c r="F55" t="b">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2160,14 +2160,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[0.044936738637248154]</t>
+          <t>[0.026484850422179775]</t>
         </is>
       </c>
       <c r="F56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2191,14 +2191,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[0.09063011430281784]</t>
+          <t>[0.03774756832745419]</t>
         </is>
       </c>
       <c r="F57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[0.044418770186404825]</t>
+          <t>[0.05218744923469291]</t>
         </is>
       </c>
       <c r="F58" t="b">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[0.03247025116648279]</t>
+          <t>[0.01932154615139567]</t>
         </is>
       </c>
       <c r="F59" t="b">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[0.028567941621545783]</t>
+          <t>[0.03361048534202155]</t>
         </is>
       </c>
       <c r="F60" t="b">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[0.17372096316902044]</t>
+          <t>[0.0992528287335947]</t>
         </is>
       </c>
       <c r="F61" t="b">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2346,14 +2346,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[0.08951481711998267]</t>
+          <t>[0.053052529887942894]</t>
         </is>
       </c>
       <c r="F62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[0.07352517759168611]</t>
+          <t>[0.09133252357907616]</t>
         </is>
       </c>
       <c r="F63" t="b">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[0.057192954409958766]</t>
+          <t>[0.06943629788876816]</t>
         </is>
       </c>
       <c r="F64" t="b">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2439,14 +2439,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[0.1071873051202155]</t>
+          <t>[0.11796681068930105]</t>
         </is>
       </c>
       <c r="F65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[0.10288834352393432]</t>
+          <t>[0.02724040996743373]</t>
         </is>
       </c>
       <c r="F66" t="b">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[0.07899325219301571]</t>
+          <t>[0.0766108710381769]</t>
         </is>
       </c>
       <c r="F67" t="b">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[0.01642605001168142]</t>
+          <t>[0.01635823843938303]</t>
         </is>
       </c>
       <c r="F68" t="b">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[0.04304544777361262]</t>
+          <t>[0.032621214754737]</t>
         </is>
       </c>
       <c r="F69" t="b">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[0.07081108000413977]</t>
+          <t>[0.07466355435726277]</t>
         </is>
       </c>
       <c r="F70" t="b">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2625,14 +2625,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[0.07377374932744721]</t>
+          <t>[0.06476333874417889]</t>
         </is>
       </c>
       <c r="F71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[0.12618670320485453]</t>
+          <t>[0.13308848987338992]</t>
         </is>
       </c>
       <c r="F72" t="b">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[15, 17]</t>
+          <t>[15, 12]</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[0.07197701009805771, 0.03488556298903387]</t>
+          <t>[0.07620054992065566, 0.022724461813901385]</t>
         </is>
       </c>
       <c r="F73" t="b">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[0.16411536660769094]</t>
+          <t>[0.15876780320549874]</t>
         </is>
       </c>
       <c r="F74" t="b">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[0.02305073096600642]</t>
+          <t>[0.02743999058893199]</t>
         </is>
       </c>
       <c r="F75" t="b">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[0.04425348047779617]</t>
+          <t>[0.10744492985541018]</t>
         </is>
       </c>
       <c r="F76" t="b">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[0.08947019923249898]</t>
+          <t>[0.0910949521772462]</t>
         </is>
       </c>
       <c r="F77" t="b">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[0.027755340250391534]</t>
+          <t>[0.024461772574824618]</t>
         </is>
       </c>
       <c r="F78" t="b">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[8, 17]</t>
+          <t>[8, 2]</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[0.05679983328362766, 0.025762068451576088]</t>
+          <t>[0.05937908600004775, 0.01952748365937375]</t>
         </is>
       </c>
       <c r="F79" t="b">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[0.11090359862124871]</t>
+          <t>[0.05367377413209437]</t>
         </is>
       </c>
       <c r="F80" t="b">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[0.06191107494649853]</t>
+          <t>[0.011525789374622746]</t>
         </is>
       </c>
       <c r="F81" t="b">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[8, 17]</t>
+          <t>[8, 9]</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2966,11 +2966,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[0.09879087864138056, 0.049126498772518526]</t>
+          <t>[0.10213520071227378, 0.045323204489095506]</t>
         </is>
       </c>
       <c r="F82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[0.1094735200942631]</t>
+          <t>[0.058808633961916844]</t>
         </is>
       </c>
       <c r="F83" t="b">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[0.03436464605377642]</t>
+          <t>[0.03462466696169558]</t>
         </is>
       </c>
       <c r="F84" t="b">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[0.02950671198842836]</t>
+          <t>[0.028398855767228736]</t>
         </is>
       </c>
       <c r="F85" t="b">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[7]</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[0.055899414685364704]</t>
+          <t>[0.09772914704437383]</t>
         </is>
       </c>
       <c r="F86" t="b">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[0.05184138759821456, 0.021879351227105166]</t>
+          <t>[0.12970540298561992, 0.023591031387803184]</t>
         </is>
       </c>
       <c r="F87" t="b">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>[11, 17]</t>
+          <t>[11, 9]</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3152,11 +3152,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[0.22291337057199806, 0.06063159485238347]</t>
+          <t>[0.2200446014591666, 0.03460507028206254]</t>
         </is>
       </c>
       <c r="F88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[6, 17]</t>
+          <t>[6, 12]</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[0.18531273431286982, 0.10677039547093198]</t>
+          <t>[0.180434998643254, 0.05837915832194352]</t>
         </is>
       </c>
       <c r="F89" t="b">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[0.06884673073302752, 0.03852340591669721]</t>
+          <t>[0.06497533800801508, 0.036520513357468316]</t>
         </is>
       </c>
       <c r="F90" t="b">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[0.03494281792179857]</t>
+          <t>[0.03269226232494807]</t>
         </is>
       </c>
       <c r="F91" t="b">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[0.03259793741142212]</t>
+          <t>[0.0324689584511122]</t>
         </is>
       </c>
       <c r="F92" t="b">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[0.043085208561155074]</t>
+          <t>[0.053295829577065496]</t>
         </is>
       </c>
       <c r="F93" t="b">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[0.04749261464503371]</t>
+          <t>[0.05118655455107862]</t>
         </is>
       </c>
       <c r="F94" t="b">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[0.02471910599900893]</t>
+          <t>[0.02965491511768319]</t>
         </is>
       </c>
       <c r="F95" t="b">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[0.17555367787291348]</t>
+          <t>[0.1698033409147026]</t>
         </is>
       </c>
       <c r="F96" t="b">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[0.050216345560876716]</t>
+          <t>[0.029628846478326528]</t>
         </is>
       </c>
       <c r="F97" t="b">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[0.09153918311614301]</t>
+          <t>[0.08820635725292947]</t>
         </is>
       </c>
       <c r="F98" t="b">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[0.3075854768131696]</t>
+          <t>[0.29965122843678926]</t>
         </is>
       </c>
       <c r="F99" t="b">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3555,14 +3555,14 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[0.030084563596266434]</t>
+          <t>[0.021453298846412627]</t>
         </is>
       </c>
       <c r="F101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[0.043523979162225265]</t>
+          <t>[0.045971048506213946]</t>
         </is>
       </c>
       <c r="F102" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[0.07233742474083292]</t>
+          <t>[0.07025708660345502]</t>
         </is>
       </c>
       <c r="F103" t="b">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[0.04263184999082741]</t>
+          <t>[0.04296056759813417]</t>
         </is>
       </c>
       <c r="F104" t="b">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[0.03349958130455283]</t>
+          <t>[0.03203220239343042]</t>
         </is>
       </c>
       <c r="F105" t="b">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[0.1436107224597606]</t>
+          <t>[0.1511654946170789]</t>
         </is>
       </c>
       <c r="F106" t="b">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[0.0193430354920434]</t>
+          <t>[0.017844373760934205]</t>
         </is>
       </c>
       <c r="F107" t="b">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[0.04821530773231138]</t>
+          <t>[0.03681956042556681]</t>
         </is>
       </c>
       <c r="F108" t="b">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[0.041930663393535454]</t>
+          <t>[0.04963589250632131]</t>
         </is>
       </c>
       <c r="F109" t="b">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[0.2765303544804463]</t>
+          <t>[0.3076239524768799]</t>
         </is>
       </c>
       <c r="F110" t="b">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[0.030582574912143425]</t>
+          <t>[0.013420402562215392]</t>
         </is>
       </c>
       <c r="F111" t="b">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[0.1610507154772139]</t>
+          <t>[0.0399761800581857]</t>
         </is>
       </c>
       <c r="F112" t="b">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[0.02958412505124448]</t>
+          <t>[0.031344046097390874]</t>
         </is>
       </c>
       <c r="F114" t="b">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[0.07029028221380035]</t>
+          <t>[0.0738811932911052]</t>
         </is>
       </c>
       <c r="F115" t="b">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[0.1530732047064922]</t>
+          <t>[0.16409993877139323]</t>
         </is>
       </c>
       <c r="F116" t="b">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[0.15398334588142673]</t>
+          <t>[0.16278303245441275]</t>
         </is>
       </c>
       <c r="F117" t="b">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[0.10339416424855678]</t>
+          <t>[0.10978151165411949]</t>
         </is>
       </c>
       <c r="F118" t="b">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[0.08016888931068149]</t>
+          <t>[0.08410985763121347]</t>
         </is>
       </c>
       <c r="F119" t="b">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[0.051247359446404434]</t>
+          <t>[0.053803486831018404]</t>
         </is>
       </c>
       <c r="F120" t="b">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[0.08586998128621919]</t>
+          <t>[0.08208275529192575]</t>
         </is>
       </c>
       <c r="F121" t="b">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[0.15403477863347576]</t>
+          <t>[0.16547826456653897]</t>
         </is>
       </c>
       <c r="F122" t="b">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[0.11734934617043521]</t>
+          <t>[0.1274786761026643]</t>
         </is>
       </c>
       <c r="F123" t="b">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[0.08071210222583505]</t>
+          <t>[0.0844140632712919]</t>
         </is>
       </c>
       <c r="F124" t="b">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[0.06938792814932104]</t>
+          <t>[0.07392282887508293]</t>
         </is>
       </c>
       <c r="F125" t="b">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[0.07643009830567624]</t>
+          <t>[0.08048808346405324]</t>
         </is>
       </c>
       <c r="F126" t="b">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[0.067036955552126]</t>
+          <t>[0.06887200772080995]</t>
         </is>
       </c>
       <c r="F127" t="b">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[0.15137060534538302]</t>
+          <t>[0.1603469585080335]</t>
         </is>
       </c>
       <c r="F128" t="b">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[0.19470017026087846]</t>
+          <t>[0.20514061063181838]</t>
         </is>
       </c>
       <c r="F129" t="b">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[0.08287703668893877]</t>
+          <t>[0.0891565984442601]</t>
         </is>
       </c>
       <c r="F130" t="b">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4485,14 +4485,14 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[0.05798958623434586]</t>
+          <t>[0.050149794672506146]</t>
         </is>
       </c>
       <c r="F131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[0.10912304044451811]</t>
+          <t>[0.11559124058777148]</t>
         </is>
       </c>
       <c r="F132" t="b">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[0.062343666745561174]</t>
+          <t>[0.06471533210733571]</t>
         </is>
       </c>
       <c r="F133" t="b">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[0.03300952580812294]</t>
+          <t>[0.019557075514144484]</t>
         </is>
       </c>
       <c r="F134" t="b">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[0.03384964869955392]</t>
+          <t>[0.016855573168997703]</t>
         </is>
       </c>
       <c r="F135" t="b">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[0.036563177432018985]</t>
+          <t>[0.03654539537710524]</t>
         </is>
       </c>
       <c r="F136" t="b">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[0.0687735220076214]</t>
+          <t>[0.053288403815544366]</t>
         </is>
       </c>
       <c r="F137" t="b">
@@ -4692,24 +4692,24 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>[9]</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>[16]</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>[16]</t>
-        </is>
-      </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[0.041516250450304194]</t>
+          <t>[0.030971640150283527]</t>
         </is>
       </c>
       <c r="F138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[0.0698161739940102]</t>
+          <t>[0.02123106167664901]</t>
         </is>
       </c>
       <c r="F139" t="b">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[0.036384930466668054]</t>
+          <t>[0.020090331054339917]</t>
         </is>
       </c>
       <c r="F140" t="b">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[0.02917828427784338]</t>
+          <t>[0.03243816988495432]</t>
         </is>
       </c>
       <c r="F141" t="b">
